--- a/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
+++ b/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45289</v>
+        <v>45302</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1411,49 +1411,49 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
+++ b/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45302</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1411,49 +1411,49 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
+++ b/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
+++ b/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C19" s="18" t="n"/>
       <c r="D19" s="7" t="n">
-        <v>1577.056</v>
+        <v>2830.888</v>
       </c>
       <c r="E19" s="13" t="n"/>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C20" s="18" t="n"/>
       <c r="D20" s="7" t="n">
-        <v>1700</v>
+        <v>2997.795</v>
       </c>
       <c r="E20" s="3" t="n"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="C21" s="18" t="n"/>
       <c r="D21" s="7" t="n">
-        <v>1875.005</v>
+        <v>3365.72</v>
       </c>
       <c r="E21" s="3" t="n"/>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="C22" s="18" t="n"/>
       <c r="D22" s="7" t="n">
-        <v>2079.958</v>
+        <v>3733.619</v>
       </c>
       <c r="E22" s="3" t="n"/>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="C23" s="18" t="n"/>
       <c r="D23" s="7" t="n">
-        <v>2326.669</v>
+        <v>4176.48</v>
       </c>
       <c r="E23" s="3" t="n"/>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="C24" s="18" t="n"/>
       <c r="D24" s="7" t="n">
-        <v>2512.655</v>
+        <v>4510.331</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" s="20">
@@ -923,7 +923,7 @@
       </c>
       <c r="C25" s="18" t="n"/>
       <c r="D25" s="7" t="n">
-        <v>2782.138</v>
+        <v>4994.066</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" s="20">
@@ -939,7 +939,7 @@
       </c>
       <c r="C26" s="18" t="n"/>
       <c r="D26" s="7" t="n">
-        <v>2952.936</v>
+        <v>5300.658</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" s="20">
@@ -955,7 +955,7 @@
       </c>
       <c r="C27" s="18" t="n"/>
       <c r="D27" s="7" t="n">
-        <v>3264.171</v>
+        <v>5859.339</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" s="20">
@@ -971,7 +971,7 @@
       </c>
       <c r="C28" s="18" t="n"/>
       <c r="D28" s="7" t="n">
-        <v>3666.498</v>
+        <v>6581.534</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="20">
@@ -987,7 +987,7 @@
       </c>
       <c r="C29" s="18" t="n"/>
       <c r="D29" s="7" t="n">
-        <v>4061.241</v>
+        <v>7290.115</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="20">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="C30" s="18" t="n"/>
       <c r="D30" s="7" t="n">
-        <v>4592.616</v>
+        <v>8243.959000000001</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="20">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C31" s="18" t="n"/>
       <c r="D31" s="7" t="n">
-        <v>5389.681</v>
+        <v>9674.727999999999</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="20"/>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C38" s="18" t="n"/>
       <c r="D38" s="7" t="n">
-        <v>5549.094</v>
+        <v>9960.880999999999</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" s="20">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C39" s="18" t="n"/>
       <c r="D39" s="7" t="n">
-        <v>6543.529</v>
+        <v>11745.938</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" s="20">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C40" s="18" t="n"/>
       <c r="D40" s="7" t="n">
-        <v>7629.048</v>
+        <v>13694.495</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1" s="20">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C41" s="18" t="n"/>
       <c r="D41" s="7" t="n">
-        <v>9644.49</v>
+        <v>17312.306</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" s="20">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C42" s="18" t="n"/>
       <c r="D42" s="7" t="n">
-        <v>12400.054</v>
+        <v>22258.673</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" s="20">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C43" s="18" t="n"/>
       <c r="D43" s="7" t="n">
-        <v>15265.698</v>
+        <v>27402.637</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" s="20">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C44" s="18" t="n"/>
       <c r="D44" s="7" t="n">
-        <v>17269.749</v>
+        <v>31000.001</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" s="20">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C45" s="18" t="n"/>
       <c r="D45" s="7" t="n">
-        <v>19850.719</v>
+        <v>35632.961</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" s="20">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C46" s="18" t="n"/>
       <c r="D46" s="7" t="n">
-        <v>8722.165999999999</v>
+        <v>15656.693</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" s="20">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C53" s="18" t="n"/>
       <c r="D53" s="7" t="n">
-        <v>2728.997</v>
+        <v>4898.677</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" s="20">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C54" s="18" t="n"/>
       <c r="D54" s="7" t="n">
-        <v>3279.351</v>
+        <v>5886.587</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" s="20">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C55" s="18" t="n"/>
       <c r="D55" s="7" t="n">
-        <v>3518.47</v>
+        <v>6315.816</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" s="20">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C56" s="18" t="n"/>
       <c r="D56" s="7" t="n">
-        <v>3992.921</v>
+        <v>7167.479</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" s="20">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C57" s="18" t="n"/>
       <c r="D57" s="7" t="n">
-        <v>4343.178</v>
+        <v>7796.208</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" s="20">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C58" s="18" t="n"/>
       <c r="D58" s="7" t="n">
-        <v>4687.502</v>
+        <v>8414.282999999999</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" s="20">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C59" s="18" t="n"/>
       <c r="D59" s="7" t="n">
-        <v>5082.241</v>
+        <v>9122.858</v>
       </c>
     </row>
     <row r="60" ht="18" customHeight="1" s="20">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C60" s="18" t="n"/>
       <c r="D60" s="7" t="n">
-        <v>5241.652</v>
+        <v>9409.008</v>
       </c>
     </row>
     <row r="61" ht="18" customHeight="1" s="20">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C61" s="18" t="n"/>
       <c r="D61" s="7" t="n">
-        <v>5723.682</v>
+        <v>10274.275</v>
       </c>
     </row>
     <row r="62" ht="18" customHeight="1" s="20">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C62" s="18" t="n"/>
       <c r="D62" s="7" t="n">
-        <v>6786.445</v>
+        <v>12181.985</v>
       </c>
     </row>
     <row r="63" ht="18" customHeight="1" s="20">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="C63" s="18" t="n"/>
       <c r="D63" s="7" t="n">
-        <v>7325.414</v>
+        <v>13149.458</v>
       </c>
     </row>
     <row r="64" ht="18" customHeight="1" s="20">
@@ -1406,54 +1406,54 @@
       </c>
       <c r="C64" s="18" t="n"/>
       <c r="D64" s="7" t="n">
-        <v>9033.405000000001</v>
+        <v>16215.381</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
+++ b/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
+++ b/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1411,49 +1411,49 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
+++ b/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1411,49 +1411,49 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
+++ b/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1411,49 +1411,49 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
+++ b/server/LISTAS/ma/BULON CABEZA REDONDA DISMAY.xlsx
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C19" s="18" t="n"/>
       <c r="D19" s="7" t="n">
-        <v>1577.056</v>
+        <v>3113.977</v>
       </c>
       <c r="E19" s="13" t="n"/>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C20" s="18" t="n"/>
       <c r="D20" s="7" t="n">
-        <v>1700</v>
+        <v>3297.575</v>
       </c>
       <c r="E20" s="3" t="n"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="C21" s="18" t="n"/>
       <c r="D21" s="7" t="n">
-        <v>1875.005</v>
+        <v>3702.292</v>
       </c>
       <c r="E21" s="3" t="n"/>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="C22" s="18" t="n"/>
       <c r="D22" s="7" t="n">
-        <v>2079.958</v>
+        <v>4106.981</v>
       </c>
       <c r="E22" s="3" t="n"/>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="C23" s="18" t="n"/>
       <c r="D23" s="7" t="n">
-        <v>2326.669</v>
+        <v>4594.128</v>
       </c>
       <c r="E23" s="3" t="n"/>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="C24" s="18" t="n"/>
       <c r="D24" s="7" t="n">
-        <v>2512.655</v>
+        <v>4961.364</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" s="20">
@@ -923,7 +923,7 @@
       </c>
       <c r="C25" s="18" t="n"/>
       <c r="D25" s="7" t="n">
-        <v>2782.138</v>
+        <v>5493.473</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" s="20">
@@ -939,7 +939,7 @@
       </c>
       <c r="C26" s="18" t="n"/>
       <c r="D26" s="7" t="n">
-        <v>2952.936</v>
+        <v>5830.724</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" s="20">
@@ -955,7 +955,7 @@
       </c>
       <c r="C27" s="18" t="n"/>
       <c r="D27" s="7" t="n">
-        <v>3264.171</v>
+        <v>6445.273</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" s="20">
@@ -971,7 +971,7 @@
       </c>
       <c r="C28" s="18" t="n"/>
       <c r="D28" s="7" t="n">
-        <v>3666.498</v>
+        <v>7239.687</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="20">
@@ -987,7 +987,7 @@
       </c>
       <c r="C29" s="18" t="n"/>
       <c r="D29" s="7" t="n">
-        <v>4061.241</v>
+        <v>8019.126</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="20">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="C30" s="18" t="n"/>
       <c r="D30" s="7" t="n">
-        <v>4592.616</v>
+        <v>9068.355</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="20">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C31" s="18" t="n"/>
       <c r="D31" s="7" t="n">
-        <v>5389.681</v>
+        <v>10642.201</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="20"/>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C38" s="18" t="n"/>
       <c r="D38" s="7" t="n">
-        <v>5549.094</v>
+        <v>10956.969</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" s="20">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C39" s="18" t="n"/>
       <c r="D39" s="7" t="n">
-        <v>6543.529</v>
+        <v>12920.532</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" s="20">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C40" s="18" t="n"/>
       <c r="D40" s="7" t="n">
-        <v>7629.048</v>
+        <v>15063.945</v>
       </c>
     </row>
     <row r="41" ht="18" customHeight="1" s="20">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C41" s="18" t="n"/>
       <c r="D41" s="7" t="n">
-        <v>9644.49</v>
+        <v>19043.537</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" s="20">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C42" s="18" t="n"/>
       <c r="D42" s="7" t="n">
-        <v>12400.054</v>
+        <v>24484.54</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" s="20">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C43" s="18" t="n"/>
       <c r="D43" s="7" t="n">
-        <v>15265.698</v>
+        <v>30142.901</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" s="20">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C44" s="18" t="n"/>
       <c r="D44" s="7" t="n">
-        <v>17269.749</v>
+        <v>34100.001</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" s="20">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C45" s="18" t="n"/>
       <c r="D45" s="7" t="n">
-        <v>19850.719</v>
+        <v>39196.257</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" s="20">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C46" s="18" t="n"/>
       <c r="D46" s="7" t="n">
-        <v>8722.165999999999</v>
+        <v>17222.362</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1" s="20">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C53" s="18" t="n"/>
       <c r="D53" s="7" t="n">
-        <v>2728.997</v>
+        <v>5388.545</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" s="20">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C54" s="18" t="n"/>
       <c r="D54" s="7" t="n">
-        <v>3279.351</v>
+        <v>6475.246</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" s="20">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C55" s="18" t="n"/>
       <c r="D55" s="7" t="n">
-        <v>3518.47</v>
+        <v>6947.398</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" s="20">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C56" s="18" t="n"/>
       <c r="D56" s="7" t="n">
-        <v>3992.921</v>
+        <v>7884.227</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" s="20">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C57" s="18" t="n"/>
       <c r="D57" s="7" t="n">
-        <v>4343.178</v>
+        <v>8575.829</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" s="20">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C58" s="18" t="n"/>
       <c r="D58" s="7" t="n">
-        <v>4687.502</v>
+        <v>9255.710999999999</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" s="20">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C59" s="18" t="n"/>
       <c r="D59" s="7" t="n">
-        <v>5082.241</v>
+        <v>10035.144</v>
       </c>
     </row>
     <row r="60" ht="18" customHeight="1" s="20">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C60" s="18" t="n"/>
       <c r="D60" s="7" t="n">
-        <v>5241.652</v>
+        <v>10349.909</v>
       </c>
     </row>
     <row r="61" ht="18" customHeight="1" s="20">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C61" s="18" t="n"/>
       <c r="D61" s="7" t="n">
-        <v>5723.682</v>
+        <v>11301.703</v>
       </c>
     </row>
     <row r="62" ht="18" customHeight="1" s="20">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C62" s="18" t="n"/>
       <c r="D62" s="7" t="n">
-        <v>6786.445</v>
+        <v>13400.184</v>
       </c>
     </row>
     <row r="63" ht="18" customHeight="1" s="20">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="C63" s="18" t="n"/>
       <c r="D63" s="7" t="n">
-        <v>7325.414</v>
+        <v>14464.404</v>
       </c>
     </row>
     <row r="64" ht="18" customHeight="1" s="20">
@@ -1406,54 +1406,54 @@
       </c>
       <c r="C64" s="18" t="n"/>
       <c r="D64" s="7" t="n">
-        <v>9033.405000000001</v>
+        <v>17836.919</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
